--- a/料理リスト/menu_backup (1).xlsx
+++ b/料理リスト/menu_backup (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fukuta\Downloads\denden-order-link\料理リスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A5A9D8-4714-497E-94B8-2E6867E39C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAE751D-FDE7-479C-B7A7-7291B9BA9441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="24660" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="24660" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="カテゴリー設定" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="269">
   <si>
     <t>表示順</t>
   </si>
@@ -36,18 +36,9 @@
     <t>おすすめ</t>
   </si>
   <si>
-    <t>ドリンク</t>
-  </si>
-  <si>
     <t>サラダ</t>
   </si>
   <si>
-    <t>野菜</t>
-  </si>
-  <si>
-    <t>麺類</t>
-  </si>
-  <si>
     <t>商品ID</t>
   </si>
   <si>
@@ -75,118 +66,7 @@
     <t>商品説明(英語)</t>
   </si>
   <si>
-    <t>絶品からあげ</t>
-  </si>
-  <si>
-    <t>特製のタレに漬け込んだ、ジューシーなからあげです。</t>
-  </si>
-  <si>
-    <t>1.JPG</t>
-  </si>
-  <si>
-    <t>おすすめ 肉</t>
-  </si>
-  <si>
-    <t>Excellent fried chicken</t>
-  </si>
-  <si>
-    <t>Juicy fried chicken marinated in a special sauce.</t>
-  </si>
-  <si>
-    <t>新鮮サラダ</t>
-  </si>
-  <si>
-    <t>採れたての新鮮野菜をたっぷり使ったヘルシーなサラダです。</t>
-  </si>
-  <si>
-    <t>2.JPG</t>
-  </si>
-  <si>
-    <t>Fresh salad</t>
-  </si>
-  <si>
-    <t>A healthy salad made with plenty of freshly picked vegetables.</t>
-  </si>
-  <si>
-    <t>生ビール</t>
-  </si>
-  <si>
-    <t>3.JPG</t>
-  </si>
-  <si>
-    <t>draft beer</t>
-  </si>
-  <si>
     <t>オレンジジュース</t>
-  </si>
-  <si>
-    <t>4.JPG</t>
-  </si>
-  <si>
-    <t>orange juice</t>
-  </si>
-  <si>
-    <t>刺盛り</t>
-  </si>
-  <si>
-    <t>富山湾のきときと</t>
-  </si>
-  <si>
-    <t>5.JPG</t>
-  </si>
-  <si>
-    <t>おすすめ 魚</t>
-  </si>
-  <si>
-    <t>Assorted sashimi</t>
-  </si>
-  <si>
-    <t>The history of Toyama Bay</t>
-  </si>
-  <si>
-    <t>アペロールスプリッツ</t>
-  </si>
-  <si>
-    <t>イタリアで大人気</t>
-  </si>
-  <si>
-    <t>6.JPG</t>
-  </si>
-  <si>
-    <t>おすすめ ドリンク</t>
-  </si>
-  <si>
-    <t>Aperol Spritz</t>
-  </si>
-  <si>
-    <t>Very popular in Italy</t>
-  </si>
-  <si>
-    <t>もずく酢</t>
-  </si>
-  <si>
-    <t>沖縄産です。</t>
-  </si>
-  <si>
-    <t>7.jpg</t>
-  </si>
-  <si>
-    <t>Vinegared mozuku seaweed</t>
-  </si>
-  <si>
-    <t>Made in Okinawa.</t>
-  </si>
-  <si>
-    <t>そば</t>
-  </si>
-  <si>
-    <t>信州産そば粉</t>
-  </si>
-  <si>
-    <t>buckwheat noodle</t>
-  </si>
-  <si>
-    <t>Shinshu buckwheat flour</t>
   </si>
   <si>
     <t>コカ・コーラ</t>
@@ -1297,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1322,7 +1202,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1330,10 +1210,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="C3" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -1341,10 +1221,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -1352,10 +1232,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -1363,10 +1243,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="C6" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -1374,10 +1254,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -1385,10 +1265,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" t="s">
         <v>262</v>
-      </c>
-      <c r="C8" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -1396,10 +1276,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -1407,10 +1287,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -1418,10 +1298,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -1429,10 +1309,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="C12" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -1440,10 +1320,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="C13" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -1451,10 +1331,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="C14" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -1465,39 +1345,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -1505,28 +1390,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>400</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="C2">
-        <v>500</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -1534,28 +1413,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>600</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
+        <v>400</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -1563,22 +1436,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -1586,22 +1459,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C5">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -1609,28 +1482,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C6">
-        <v>1000</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
+        <v>400</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -1638,28 +1505,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C7">
-        <v>700</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
+        <v>400</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -1667,28 +1528,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C8">
-        <v>300</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
+        <v>650</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>6</v>
+        <v>255</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -1696,25 +1551,2171 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>650</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>255</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>650</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>255</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>500</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>255</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>650</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>255</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13">
+        <v>680</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>255</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>650</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>255</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15">
+        <v>600</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>255</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16">
+        <v>600</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>255</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>51</v>
       </c>
-      <c r="C9">
+      <c r="C17">
+        <v>500</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>255</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18">
+        <v>500</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>255</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19">
+        <v>500</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>255</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20">
+        <v>500</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>255</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21">
+        <v>500</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
+        <v>255</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
+        <v>500</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" t="s">
+        <v>255</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23">
+        <v>3300</v>
+      </c>
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" t="s">
+        <v>255</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24">
+        <v>3300</v>
+      </c>
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" t="s">
+        <v>255</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25">
+        <v>3300</v>
+      </c>
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" t="s">
+        <v>255</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26">
+        <v>3500</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s">
+        <v>255</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27">
+        <v>5500</v>
+      </c>
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" t="s">
+        <v>255</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28">
+        <v>4800</v>
+      </c>
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" t="s">
+        <v>255</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29">
+        <v>950</v>
+      </c>
+      <c r="E29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" t="s">
+        <v>255</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30">
+        <v>580</v>
+      </c>
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" t="s">
+        <v>255</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31">
+        <v>780</v>
+      </c>
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" t="s">
+        <v>255</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32">
+        <v>780</v>
+      </c>
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" t="s">
+        <v>255</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33">
+        <v>780</v>
+      </c>
+      <c r="E33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" t="s">
+        <v>255</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34">
+        <v>550</v>
+      </c>
+      <c r="D34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" t="s">
+        <v>255</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>90</v>
+      </c>
+      <c r="I34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35">
+        <v>450</v>
+      </c>
+      <c r="D35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>95</v>
+      </c>
+      <c r="I35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36">
+        <v>600</v>
+      </c>
+      <c r="E36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" t="s">
+        <v>255</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37">
+        <v>600</v>
+      </c>
+      <c r="E37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" t="s">
+        <v>255</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38">
+        <v>600</v>
+      </c>
+      <c r="D38" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" t="s">
+        <v>255</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>104</v>
+      </c>
+      <c r="I38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39">
+        <v>600</v>
+      </c>
+      <c r="E39" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" t="s">
+        <v>255</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40">
+        <v>600</v>
+      </c>
+      <c r="E40" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" t="s">
+        <v>255</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41">
+        <v>600</v>
+      </c>
+      <c r="E41" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" t="s">
+        <v>255</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42">
+        <v>600</v>
+      </c>
+      <c r="E42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" t="s">
+        <v>255</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43">
+        <v>600</v>
+      </c>
+      <c r="D43" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" t="s">
+        <v>255</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>116</v>
+      </c>
+      <c r="I43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44">
+        <v>600</v>
+      </c>
+      <c r="D44" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" t="s">
+        <v>255</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>120</v>
+      </c>
+      <c r="I44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45">
+        <v>2200</v>
+      </c>
+      <c r="E45" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45" t="s">
+        <v>255</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46">
+        <v>2800</v>
+      </c>
+      <c r="D46" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" t="s">
+        <v>255</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>126</v>
+      </c>
+      <c r="I46" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47">
         <v>700</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E47" t="s">
+        <v>129</v>
+      </c>
+      <c r="F47" t="s">
+        <v>130</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48">
+        <v>700</v>
+      </c>
+      <c r="E48" t="s">
+        <v>129</v>
+      </c>
+      <c r="F48" t="s">
+        <v>130</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49">
+        <v>700</v>
+      </c>
+      <c r="E49" t="s">
+        <v>129</v>
+      </c>
+      <c r="F49" t="s">
+        <v>130</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50">
+        <v>700</v>
+      </c>
+      <c r="E50" t="s">
+        <v>129</v>
+      </c>
+      <c r="F50" t="s">
+        <v>130</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51">
+        <v>550</v>
+      </c>
+      <c r="E51" t="s">
+        <v>129</v>
+      </c>
+      <c r="F51" t="s">
+        <v>130</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52">
+        <v>700</v>
+      </c>
+      <c r="E52" t="s">
+        <v>129</v>
+      </c>
+      <c r="F52" t="s">
+        <v>130</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="B53" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53">
+        <v>700</v>
+      </c>
+      <c r="E53" t="s">
+        <v>129</v>
+      </c>
+      <c r="F53" t="s">
+        <v>130</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="I9" t="s">
+      <c r="B54" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54">
+        <v>700</v>
+      </c>
+      <c r="E54" t="s">
+        <v>129</v>
+      </c>
+      <c r="F54" t="s">
+        <v>130</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>145</v>
+      </c>
+      <c r="I54" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55">
         <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55">
+        <v>600</v>
+      </c>
+      <c r="E55" t="s">
+        <v>129</v>
+      </c>
+      <c r="F55" t="s">
+        <v>148</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56">
+        <v>700</v>
+      </c>
+      <c r="E56" t="s">
+        <v>129</v>
+      </c>
+      <c r="F56" t="s">
+        <v>148</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57">
+        <v>700</v>
+      </c>
+      <c r="E57" t="s">
+        <v>129</v>
+      </c>
+      <c r="F57" t="s">
+        <v>148</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58">
+        <v>700</v>
+      </c>
+      <c r="E58" t="s">
+        <v>129</v>
+      </c>
+      <c r="F58" t="s">
+        <v>148</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59">
+        <v>780</v>
+      </c>
+      <c r="E59" t="s">
+        <v>129</v>
+      </c>
+      <c r="F59" t="s">
+        <v>148</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>157</v>
+      </c>
+      <c r="I59" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60">
+        <v>980</v>
+      </c>
+      <c r="E60" t="s">
+        <v>129</v>
+      </c>
+      <c r="F60" t="s">
+        <v>160</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61">
+        <v>680</v>
+      </c>
+      <c r="E61" t="s">
+        <v>129</v>
+      </c>
+      <c r="F61" t="s">
+        <v>160</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62">
+        <v>700</v>
+      </c>
+      <c r="E62" t="s">
+        <v>165</v>
+      </c>
+      <c r="F62" t="s">
+        <v>166</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>167</v>
+      </c>
+      <c r="I62" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>169</v>
+      </c>
+      <c r="C63">
+        <v>730</v>
+      </c>
+      <c r="E63" t="s">
+        <v>165</v>
+      </c>
+      <c r="F63" t="s">
+        <v>166</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>170</v>
+      </c>
+      <c r="I63" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64">
+        <v>800</v>
+      </c>
+      <c r="E64" t="s">
+        <v>165</v>
+      </c>
+      <c r="F64" t="s">
+        <v>166</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>173</v>
+      </c>
+      <c r="I64" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>175</v>
+      </c>
+      <c r="C65">
+        <v>880</v>
+      </c>
+      <c r="E65" t="s">
+        <v>165</v>
+      </c>
+      <c r="F65" t="s">
+        <v>166</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>176</v>
+      </c>
+      <c r="I65" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>178</v>
+      </c>
+      <c r="C66">
+        <v>730</v>
+      </c>
+      <c r="E66" t="s">
+        <v>165</v>
+      </c>
+      <c r="F66" t="s">
+        <v>166</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>179</v>
+      </c>
+      <c r="I66" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>181</v>
+      </c>
+      <c r="C67">
+        <v>730</v>
+      </c>
+      <c r="E67" t="s">
+        <v>165</v>
+      </c>
+      <c r="F67" t="s">
+        <v>166</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>183</v>
+      </c>
+      <c r="C68">
+        <v>300</v>
+      </c>
+      <c r="E68" t="s">
+        <v>165</v>
+      </c>
+      <c r="F68" t="s">
+        <v>184</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>186</v>
+      </c>
+      <c r="C69">
+        <v>830</v>
+      </c>
+      <c r="E69" t="s">
+        <v>165</v>
+      </c>
+      <c r="F69" t="s">
+        <v>184</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69" t="s">
+        <v>187</v>
+      </c>
+      <c r="I69" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>189</v>
+      </c>
+      <c r="C70">
+        <v>750</v>
+      </c>
+      <c r="E70" t="s">
+        <v>165</v>
+      </c>
+      <c r="F70" t="s">
+        <v>190</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>192</v>
+      </c>
+      <c r="C71">
+        <v>980</v>
+      </c>
+      <c r="E71" t="s">
+        <v>165</v>
+      </c>
+      <c r="F71" t="s">
+        <v>190</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>193</v>
+      </c>
+      <c r="I71" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>195</v>
+      </c>
+      <c r="C72">
+        <v>980</v>
+      </c>
+      <c r="E72" t="s">
+        <v>165</v>
+      </c>
+      <c r="F72" t="s">
+        <v>190</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>197</v>
+      </c>
+      <c r="C73">
+        <v>780</v>
+      </c>
+      <c r="E73" t="s">
+        <v>165</v>
+      </c>
+      <c r="F73" t="s">
+        <v>190</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>199</v>
+      </c>
+      <c r="C74">
+        <v>400</v>
+      </c>
+      <c r="E74" t="s">
+        <v>200</v>
+      </c>
+      <c r="F74" t="s">
+        <v>201</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>202</v>
+      </c>
+      <c r="I74" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>204</v>
+      </c>
+      <c r="C75">
+        <v>450</v>
+      </c>
+      <c r="E75" t="s">
+        <v>200</v>
+      </c>
+      <c r="F75" t="s">
+        <v>201</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>206</v>
+      </c>
+      <c r="C76">
+        <v>400</v>
+      </c>
+      <c r="E76" t="s">
+        <v>200</v>
+      </c>
+      <c r="F76" t="s">
+        <v>201</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>207</v>
+      </c>
+      <c r="I76" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>209</v>
+      </c>
+      <c r="C77">
+        <v>450</v>
+      </c>
+      <c r="E77" t="s">
+        <v>200</v>
+      </c>
+      <c r="F77" t="s">
+        <v>201</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77" t="s">
+        <v>210</v>
+      </c>
+      <c r="I77" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>212</v>
+      </c>
+      <c r="C78">
+        <v>400</v>
+      </c>
+      <c r="E78" t="s">
+        <v>200</v>
+      </c>
+      <c r="F78" t="s">
+        <v>201</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>214</v>
+      </c>
+      <c r="C79">
+        <v>600</v>
+      </c>
+      <c r="E79" t="s">
+        <v>200</v>
+      </c>
+      <c r="F79" t="s">
+        <v>4</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>216</v>
+      </c>
+      <c r="C80">
+        <v>780</v>
+      </c>
+      <c r="E80" t="s">
+        <v>200</v>
+      </c>
+      <c r="F80" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>218</v>
+      </c>
+      <c r="C81">
+        <v>480</v>
+      </c>
+      <c r="E81" t="s">
+        <v>200</v>
+      </c>
+      <c r="F81" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81" t="s">
+        <v>219</v>
+      </c>
+      <c r="I81" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>221</v>
+      </c>
+      <c r="C82">
+        <v>1500</v>
+      </c>
+      <c r="E82" t="s">
+        <v>200</v>
+      </c>
+      <c r="F82" t="s">
+        <v>222</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>224</v>
+      </c>
+      <c r="C83">
+        <v>880</v>
+      </c>
+      <c r="D83" t="s">
+        <v>225</v>
+      </c>
+      <c r="E83" t="s">
+        <v>200</v>
+      </c>
+      <c r="F83" t="s">
+        <v>222</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83" t="s">
+        <v>226</v>
+      </c>
+      <c r="I83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>228</v>
+      </c>
+      <c r="C84">
+        <v>580</v>
+      </c>
+      <c r="D84" t="s">
+        <v>229</v>
+      </c>
+      <c r="E84" t="s">
+        <v>230</v>
+      </c>
+      <c r="F84" t="s">
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84" t="s">
+        <v>231</v>
+      </c>
+      <c r="I84" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>233</v>
+      </c>
+      <c r="C85">
+        <v>580</v>
+      </c>
+      <c r="D85" t="s">
+        <v>229</v>
+      </c>
+      <c r="E85" t="s">
+        <v>230</v>
+      </c>
+      <c r="F85" t="s">
+        <v>3</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85" t="s">
+        <v>234</v>
+      </c>
+      <c r="I85" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C86">
+        <v>680</v>
+      </c>
+      <c r="D86" t="s">
+        <v>229</v>
+      </c>
+      <c r="E86" t="s">
+        <v>230</v>
+      </c>
+      <c r="F86" t="s">
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86" t="s">
+        <v>236</v>
+      </c>
+      <c r="I86" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>237</v>
+      </c>
+      <c r="C87">
+        <v>580</v>
+      </c>
+      <c r="D87" t="s">
+        <v>229</v>
+      </c>
+      <c r="E87" t="s">
+        <v>230</v>
+      </c>
+      <c r="F87" t="s">
+        <v>3</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87" t="s">
+        <v>238</v>
+      </c>
+      <c r="I87" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>239</v>
+      </c>
+      <c r="C88">
+        <v>680</v>
+      </c>
+      <c r="D88" t="s">
+        <v>229</v>
+      </c>
+      <c r="E88" t="s">
+        <v>230</v>
+      </c>
+      <c r="F88" t="s">
+        <v>3</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88" t="s">
+        <v>240</v>
+      </c>
+      <c r="I88" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>241</v>
+      </c>
+      <c r="C89">
+        <v>780</v>
+      </c>
+      <c r="D89" t="s">
+        <v>229</v>
+      </c>
+      <c r="E89" t="s">
+        <v>230</v>
+      </c>
+      <c r="F89" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89" t="s">
+        <v>242</v>
+      </c>
+      <c r="I89" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>243</v>
+      </c>
+      <c r="C90">
+        <v>730</v>
+      </c>
+      <c r="D90" t="s">
+        <v>229</v>
+      </c>
+      <c r="E90" t="s">
+        <v>230</v>
+      </c>
+      <c r="F90" t="s">
+        <v>3</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90" t="s">
+        <v>244</v>
+      </c>
+      <c r="I90" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>245</v>
+      </c>
+      <c r="C91">
+        <v>680</v>
+      </c>
+      <c r="D91" t="s">
+        <v>229</v>
+      </c>
+      <c r="E91" t="s">
+        <v>230</v>
+      </c>
+      <c r="F91" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>246</v>
+      </c>
+      <c r="I91" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>247</v>
+      </c>
+      <c r="C92">
+        <v>650</v>
+      </c>
+      <c r="D92" t="s">
+        <v>229</v>
+      </c>
+      <c r="E92" t="s">
+        <v>230</v>
+      </c>
+      <c r="F92" t="s">
+        <v>3</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92" t="s">
+        <v>248</v>
+      </c>
+      <c r="I92" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C93">
+        <v>650</v>
+      </c>
+      <c r="D93" t="s">
+        <v>229</v>
+      </c>
+      <c r="E93" t="s">
+        <v>230</v>
+      </c>
+      <c r="F93" t="s">
+        <v>3</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93" t="s">
+        <v>250</v>
+      </c>
+      <c r="I93" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>251</v>
+      </c>
+      <c r="C94">
+        <v>750</v>
+      </c>
+      <c r="D94" t="s">
+        <v>229</v>
+      </c>
+      <c r="E94" t="s">
+        <v>230</v>
+      </c>
+      <c r="F94" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94" t="s">
+        <v>252</v>
+      </c>
+      <c r="I94" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>253</v>
+      </c>
+      <c r="C95">
+        <v>580</v>
+      </c>
+      <c r="D95" t="s">
+        <v>229</v>
+      </c>
+      <c r="E95" t="s">
+        <v>230</v>
+      </c>
+      <c r="F95" t="s">
+        <v>3</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95" t="s">
+        <v>254</v>
+      </c>
+      <c r="I95" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -1728,7 +3729,7 @@
   <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F40" sqref="F1:F1048576"/>
+      <selection activeCell="A40" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1738,31 +3739,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -1770,22 +3771,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>400</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -1793,22 +3794,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>400</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -1816,22 +3817,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>400</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -1839,22 +3840,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>400</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -1862,22 +3863,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>400</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -1885,22 +3886,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>400</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -1908,22 +3909,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>650</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -1931,22 +3932,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>650</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -1954,22 +3955,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>650</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -1977,22 +3978,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>500</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -2000,22 +4001,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>650</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -2023,22 +4024,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="C13">
         <v>680</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -2046,22 +4047,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C14">
         <v>650</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -2069,28 +4070,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <v>600</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -2098,28 +4099,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="C16">
         <v>600</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="I16" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -2127,22 +4128,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C17">
         <v>500</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -2150,22 +4151,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C18">
         <v>500</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -2173,22 +4174,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C19">
         <v>500</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -2196,22 +4197,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="C20">
         <v>500</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -2219,22 +4220,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="C21">
         <v>500</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -2242,28 +4243,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C22">
         <v>500</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="F22" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="I22" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -2271,22 +4272,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C23">
         <v>3300</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -2294,22 +4295,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="C24">
         <v>3300</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="F24" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -2317,22 +4318,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="C25">
         <v>3300</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="F25" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -2340,22 +4341,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="C26">
         <v>3500</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="F26" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -2363,22 +4364,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="C27">
         <v>5500</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="F27" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -2386,22 +4387,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="C28">
         <v>4800</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="F28" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -2409,22 +4410,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="C29">
         <v>950</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="F29" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -2432,22 +4433,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="C30">
         <v>580</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="F30" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -2455,22 +4456,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="C31">
         <v>780</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="F31" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -2478,22 +4479,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="C32">
         <v>780</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="F32" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -2501,22 +4502,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="C33">
         <v>780</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -2524,28 +4525,28 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="C34">
         <v>550</v>
       </c>
       <c r="D34" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="E34" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="F34" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="I34" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -2553,28 +4554,28 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="C35">
         <v>450</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="E35" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="F35" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="I35" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -2582,22 +4583,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="C36">
         <v>600</v>
       </c>
       <c r="E36" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="F36" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -2605,22 +4606,22 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="C37">
         <v>600</v>
       </c>
       <c r="E37" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="F37" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -2628,28 +4629,28 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="C38">
         <v>600</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="E38" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="F38" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="I38" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
@@ -2657,22 +4658,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="C39">
         <v>600</v>
       </c>
       <c r="E39" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="F39" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -2680,22 +4681,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="C40">
         <v>600</v>
       </c>
       <c r="E40" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="F40" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -2703,22 +4704,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C41">
         <v>600</v>
       </c>
       <c r="E41" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="F41" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
@@ -2726,22 +4727,22 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="C42">
         <v>600</v>
       </c>
       <c r="E42" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="F42" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -2749,28 +4750,28 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="C43">
         <v>600</v>
       </c>
       <c r="D43" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="E43" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="F43" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="I43" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -2778,28 +4779,28 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="C44">
         <v>600</v>
       </c>
       <c r="D44" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="E44" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="F44" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="I44" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
@@ -2807,22 +4808,22 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="C45">
         <v>2200</v>
       </c>
       <c r="E45" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="F45" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
@@ -2830,28 +4831,28 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="C46">
         <v>2800</v>
       </c>
       <c r="D46" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="E46" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="F46" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="I46" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
@@ -2859,22 +4860,22 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="C47">
         <v>700</v>
       </c>
       <c r="E47" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="F47" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
@@ -2882,22 +4883,22 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="C48">
         <v>700</v>
       </c>
       <c r="E48" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="F48" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
@@ -2905,22 +4906,22 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="C49">
         <v>700</v>
       </c>
       <c r="E49" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="F49" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
@@ -2928,22 +4929,22 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="C50">
         <v>700</v>
       </c>
       <c r="E50" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="F50" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
@@ -2951,22 +4952,22 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="C51">
         <v>550</v>
       </c>
       <c r="E51" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="F51" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
@@ -2974,22 +4975,22 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="C52">
         <v>700</v>
       </c>
       <c r="E52" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="F52" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
@@ -2997,22 +4998,22 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="C53">
         <v>700</v>
       </c>
       <c r="E53" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="F53" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
@@ -3020,25 +5021,25 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="C54">
         <v>700</v>
       </c>
       <c r="E54" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="F54" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="I54" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
@@ -3046,22 +5047,22 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="C55">
         <v>600</v>
       </c>
       <c r="E55" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="F55" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
@@ -3069,22 +5070,22 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="C56">
         <v>700</v>
       </c>
       <c r="E56" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="F56" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
@@ -3092,22 +5093,22 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="C57">
         <v>700</v>
       </c>
       <c r="E57" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="F57" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
@@ -3115,22 +5116,22 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="C58">
         <v>700</v>
       </c>
       <c r="E58" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="F58" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
@@ -3138,25 +5139,25 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="C59">
         <v>780</v>
       </c>
       <c r="E59" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="F59" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="I59" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
@@ -3164,22 +5165,22 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="C60">
         <v>980</v>
       </c>
       <c r="E60" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="F60" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
@@ -3187,22 +5188,22 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="C61">
         <v>680</v>
       </c>
       <c r="E61" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="F61" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
@@ -3210,25 +5211,25 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="C62">
         <v>700</v>
       </c>
       <c r="E62" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="F62" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="I62" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
@@ -3236,25 +5237,25 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="C63">
         <v>730</v>
       </c>
       <c r="E63" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="F63" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="I63" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
@@ -3262,25 +5263,25 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C64">
         <v>800</v>
       </c>
       <c r="E64" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="F64" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="I64" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
@@ -3288,25 +5289,25 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="C65">
         <v>880</v>
       </c>
       <c r="E65" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="F65" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="I65" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
@@ -3314,25 +5315,25 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="C66">
         <v>730</v>
       </c>
       <c r="E66" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="F66" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="I66" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
@@ -3340,22 +5341,22 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="C67">
         <v>730</v>
       </c>
       <c r="E67" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="F67" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
@@ -3363,22 +5364,22 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="C68">
         <v>300</v>
       </c>
       <c r="E68" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="F68" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
@@ -3386,25 +5387,25 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="C69">
         <v>830</v>
       </c>
       <c r="E69" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="F69" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="I69" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
@@ -3412,22 +5413,22 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="C70">
         <v>750</v>
       </c>
       <c r="E70" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="F70" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
@@ -3435,25 +5436,25 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="C71">
         <v>980</v>
       </c>
       <c r="E71" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="F71" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="I71" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
@@ -3461,22 +5462,22 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="C72">
         <v>980</v>
       </c>
       <c r="E72" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="F72" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
@@ -3484,22 +5485,22 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="C73">
         <v>780</v>
       </c>
       <c r="E73" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="F73" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
@@ -3507,25 +5508,25 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="C74">
         <v>400</v>
       </c>
       <c r="E74" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="F74" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="I74" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
@@ -3533,22 +5534,22 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="C75">
         <v>450</v>
       </c>
       <c r="E75" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="F75" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
@@ -3556,25 +5557,25 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="C76">
         <v>400</v>
       </c>
       <c r="E76" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="F76" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="I76" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
@@ -3582,25 +5583,25 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="C77">
         <v>450</v>
       </c>
       <c r="E77" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="F77" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="I77" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
@@ -3608,22 +5609,22 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="C78">
         <v>400</v>
       </c>
       <c r="E78" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="F78" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
@@ -3631,22 +5632,22 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="C79">
         <v>600</v>
       </c>
       <c r="E79" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="F79" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
@@ -3654,22 +5655,22 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="C80">
         <v>780</v>
       </c>
       <c r="E80" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="F80" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
@@ -3677,25 +5678,25 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="C81">
         <v>480</v>
       </c>
       <c r="E81" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="F81" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="I81" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
@@ -3703,22 +5704,22 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="C82">
         <v>1500</v>
       </c>
       <c r="E82" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="F82" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
@@ -3726,28 +5727,28 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="C83">
         <v>880</v>
       </c>
       <c r="D83" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="E83" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="F83" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="I83" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
@@ -3755,16 +5756,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="C84">
         <v>580</v>
       </c>
       <c r="D84" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="E84" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="F84" t="s">
         <v>3</v>
@@ -3773,10 +5774,10 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="I84" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
@@ -3784,16 +5785,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="C85">
         <v>580</v>
       </c>
       <c r="D85" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="E85" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="F85" t="s">
         <v>3</v>
@@ -3802,10 +5803,10 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="I85" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
@@ -3813,16 +5814,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="C86">
         <v>680</v>
       </c>
       <c r="D86" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="E86" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="F86" t="s">
         <v>3</v>
@@ -3831,10 +5832,10 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="I86" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
@@ -3842,16 +5843,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="C87">
         <v>580</v>
       </c>
       <c r="D87" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="E87" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="F87" t="s">
         <v>3</v>
@@ -3860,10 +5861,10 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="I87" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
@@ -3871,16 +5872,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="C88">
         <v>680</v>
       </c>
       <c r="D88" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="E88" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="F88" t="s">
         <v>3</v>
@@ -3889,10 +5890,10 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="I88" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
@@ -3900,16 +5901,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="C89">
         <v>780</v>
       </c>
       <c r="D89" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="E89" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="F89" t="s">
         <v>3</v>
@@ -3918,10 +5919,10 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="I89" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
@@ -3929,16 +5930,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="C90">
         <v>730</v>
       </c>
       <c r="D90" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="E90" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="F90" t="s">
         <v>3</v>
@@ -3947,10 +5948,10 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="I90" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
@@ -3958,16 +5959,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="C91">
         <v>680</v>
       </c>
       <c r="D91" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="E91" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="F91" t="s">
         <v>3</v>
@@ -3976,10 +5977,10 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="I91" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
@@ -3987,16 +5988,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="C92">
         <v>650</v>
       </c>
       <c r="D92" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="E92" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="F92" t="s">
         <v>3</v>
@@ -4005,10 +6006,10 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="I92" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
@@ -4016,16 +6017,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="C93">
         <v>650</v>
       </c>
       <c r="D93" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="E93" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="F93" t="s">
         <v>3</v>
@@ -4034,10 +6035,10 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="I93" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
@@ -4045,16 +6046,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="C94">
         <v>750</v>
       </c>
       <c r="D94" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="E94" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="F94" t="s">
         <v>3</v>
@@ -4063,10 +6064,10 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="I94" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
@@ -4074,16 +6075,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="C95">
         <v>580</v>
       </c>
       <c r="D95" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="E95" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="F95" t="s">
         <v>3</v>
@@ -4092,10 +6093,10 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="I95" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
